--- a/dmImportExcel.xlsx
+++ b/dmImportExcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hrsv5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B21367-CABD-4303-9F62-61E9B79EAB07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15419CA0-857E-4228-90F7-E6D798DA1B5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1729C47B-E37B-4A07-83EA-FACA8BDBC144}"/>
   </bookViews>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{73E040B4-C7EB-4E3D-B669-4688EB86A65D}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{73E040B4-C7EB-4E3D-B669-4688EB86A65D}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{AFB8831E-9F5C-476B-B50F-8CC32A6AA67B}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{AFB8831E-9F5C-476B-B50F-8CC32A6AA67B}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{F29F7E7E-F763-488D-97B8-9C0E10D0BC30}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{F29F7E7E-F763-488D-97B8-9C0E10D0BC30}">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{1FD6CE9F-25DF-44E4-9014-3D5A9AFCF071}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{1FD6CE9F-25DF-44E4-9014-3D5A9AFCF071}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{B7E3B8E4-49CC-4266-B19A-038183543DA0}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{B7E3B8E4-49CC-4266-B19A-038183543DA0}">
       <text>
         <r>
           <rPr>
@@ -135,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{E09EADC8-6F6A-4F01-BB01-A621D70B210C}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{E09EADC8-6F6A-4F01-BB01-A621D70B210C}">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{71691442-0274-4149-ADC4-7BABF1056E6B}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{71691442-0274-4149-ADC4-7BABF1056E6B}">
       <text>
         <r>
           <rPr>
@@ -169,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{C8940DEC-08A8-45D6-A082-9B7915AA696C}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{C8940DEC-08A8-45D6-A082-9B7915AA696C}">
       <text>
         <r>
           <rPr>
@@ -187,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{8C5592BB-AC24-43A8-9B47-A21387D34306}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{8C5592BB-AC24-43A8-9B47-A21387D34306}">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{7259CD52-A17F-46A2-8C22-C397D9F637C1}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{7259CD52-A17F-46A2-8C22-C397D9F637C1}">
       <text>
         <r>
           <rPr>
@@ -223,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{E7D235D9-810A-4D22-A803-929758B2BF76}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{E7D235D9-810A-4D22-A803-929758B2BF76}">
       <text>
         <r>
           <rPr>
@@ -240,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{C5792FC4-774F-4B0D-99E7-FEE6F4282E59}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{C5792FC4-774F-4B0D-99E7-FEE6F4282E59}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{249640C3-B54D-4AD1-9267-1609FB32DFF0}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{249640C3-B54D-4AD1-9267-1609FB32DFF0}">
       <text>
         <r>
           <rPr>
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>表英文名</t>
   </si>
@@ -308,9 +308,6 @@
   </si>
   <si>
     <t>预览SQL</t>
-  </si>
-  <si>
-    <t>前置作业</t>
   </si>
   <si>
     <t>后置作业</t>
@@ -825,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D2EDE02-4E94-41B5-A18B-063DEF898019}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -836,15 +833,15 @@
     <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -865,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -877,10 +874,10 @@
         <v>9</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>11</v>
@@ -892,13 +889,13 @@
         <v>13</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>21</v>
@@ -915,46 +912,46 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
       <c r="H2">
         <v>99991231</v>
       </c>
       <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P2" t="s">
         <v>38</v>
@@ -963,31 +960,28 @@
         <v>39</v>
       </c>
       <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" t="s">
-        <v>41</v>
+      <c r="U2" t="s">
+        <v>26</v>
       </c>
       <c r="V2" t="s">
         <v>27</v>
       </c>
       <c r="W2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="X2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
